--- a/6/1/2/1/2/Suscripciones diarias por plazo original 2009 a 2021 - Mensual.xlsx
+++ b/6/1/2/1/2/Suscripciones diarias por plazo original 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>Serie</t>
   </si>
@@ -494,6 +494,12 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -851,7 +857,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5689,6 +5695,70 @@
         <v>906</v>
       </c>
     </row>
+    <row r="152" spans="1:10">
+      <c r="A152" t="s">
+        <v>160</v>
+      </c>
+      <c r="B152">
+        <v>11940</v>
+      </c>
+      <c r="C152">
+        <v>1513</v>
+      </c>
+      <c r="D152">
+        <v>2261</v>
+      </c>
+      <c r="E152">
+        <v>613</v>
+      </c>
+      <c r="F152">
+        <v>1509</v>
+      </c>
+      <c r="G152">
+        <v>715</v>
+      </c>
+      <c r="H152">
+        <v>2486</v>
+      </c>
+      <c r="I152">
+        <v>1599</v>
+      </c>
+      <c r="J152">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" t="s">
+        <v>161</v>
+      </c>
+      <c r="B153">
+        <v>16535</v>
+      </c>
+      <c r="C153">
+        <v>1828</v>
+      </c>
+      <c r="D153">
+        <v>2508</v>
+      </c>
+      <c r="E153">
+        <v>1904</v>
+      </c>
+      <c r="F153">
+        <v>3334</v>
+      </c>
+      <c r="G153">
+        <v>1485</v>
+      </c>
+      <c r="H153">
+        <v>3335</v>
+      </c>
+      <c r="I153">
+        <v>1264</v>
+      </c>
+      <c r="J153">
+        <v>878</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/2/1/2/Suscripciones diarias por plazo original 2009 a 2021 - Mensual.xlsx
+++ b/6/1/2/1/2/Suscripciones diarias por plazo original 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>Serie</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -857,7 +860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5759,6 +5762,38 @@
         <v>878</v>
       </c>
     </row>
+    <row r="154" spans="1:10">
+      <c r="A154" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154">
+        <v>13972</v>
+      </c>
+      <c r="C154">
+        <v>4188</v>
+      </c>
+      <c r="D154">
+        <v>1474</v>
+      </c>
+      <c r="E154">
+        <v>1356</v>
+      </c>
+      <c r="F154">
+        <v>1409</v>
+      </c>
+      <c r="G154">
+        <v>830</v>
+      </c>
+      <c r="H154">
+        <v>2292</v>
+      </c>
+      <c r="I154">
+        <v>1355</v>
+      </c>
+      <c r="J154">
+        <v>1068</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
